--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Csf2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Csf2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Csf2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.690236</v>
       </c>
       <c r="I2">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J2">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.200671</v>
+        <v>0.2111075</v>
       </c>
       <c r="N2">
-        <v>0.401342</v>
+        <v>0.422215</v>
       </c>
       <c r="O2">
-        <v>0.001917340298512896</v>
+        <v>0.0009789996530386493</v>
       </c>
       <c r="P2">
-        <v>0.001283092321101579</v>
+        <v>0.0006535518839479957</v>
       </c>
       <c r="Q2">
-        <v>0.04617011611866667</v>
+        <v>0.04857133212333333</v>
       </c>
       <c r="R2">
-        <v>0.277020696712</v>
+        <v>0.29142799274</v>
       </c>
       <c r="S2">
-        <v>0.0009502696775267081</v>
+        <v>0.0002092144481190754</v>
       </c>
       <c r="T2">
-        <v>0.0007644491517673441</v>
+        <v>0.0001505817203539845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.690236</v>
       </c>
       <c r="I3">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J3">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.64557</v>
       </c>
       <c r="O3">
-        <v>0.005240946084260416</v>
+        <v>0.00254374739418039</v>
       </c>
       <c r="P3">
-        <v>0.005260895273445404</v>
+        <v>0.002547198402871294</v>
       </c>
       <c r="Q3">
         <v>0.1262035171688889</v>
@@ -641,10 +641,10 @@
         <v>1.13583165452</v>
       </c>
       <c r="S3">
-        <v>0.002597510806656376</v>
+        <v>0.0005436045922753524</v>
       </c>
       <c r="T3">
-        <v>0.003134370663109738</v>
+        <v>0.0005868876320426946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +673,10 @@
         <v>0.690236</v>
       </c>
       <c r="I4">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J4">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.16396966666667</v>
+        <v>76.60934666666667</v>
       </c>
       <c r="N4">
-        <v>150.491909</v>
+        <v>229.82804</v>
       </c>
       <c r="O4">
-        <v>0.479298954882761</v>
+        <v>0.3552717160981219</v>
       </c>
       <c r="P4">
-        <v>0.4811233631810715</v>
+        <v>0.3557537001908395</v>
       </c>
       <c r="Q4">
-        <v>11.54165925561378</v>
+        <v>17.62617633527111</v>
       </c>
       <c r="R4">
-        <v>103.874933300524</v>
+        <v>158.63558701744</v>
       </c>
       <c r="S4">
-        <v>0.2375495177609266</v>
+        <v>0.07592237217355895</v>
       </c>
       <c r="T4">
-        <v>0.2866468303414503</v>
+        <v>0.08196748492778408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>0.690236</v>
       </c>
       <c r="I5">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J5">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9899465000000001</v>
+        <v>0.6653395</v>
       </c>
       <c r="N5">
-        <v>1.979893</v>
+        <v>1.330679</v>
       </c>
       <c r="O5">
-        <v>0.00945858802628081</v>
+        <v>0.003085476070972885</v>
       </c>
       <c r="P5">
-        <v>0.00632972752640583</v>
+        <v>0.00205977468204596</v>
       </c>
       <c r="Q5">
-        <v>0.2277655707913333</v>
+        <v>0.1530804250406667</v>
       </c>
       <c r="R5">
-        <v>1.366593424748</v>
+        <v>0.9184825502439999</v>
       </c>
       <c r="S5">
-        <v>0.004687852959937875</v>
+        <v>0.0006593732401943159</v>
       </c>
       <c r="T5">
-        <v>0.003771166547333951</v>
+        <v>0.0004745826961593494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.690236</v>
       </c>
       <c r="I6">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J6">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.235392</v>
+        <v>98.13070699999999</v>
       </c>
       <c r="N6">
-        <v>0.706176</v>
+        <v>294.392121</v>
       </c>
       <c r="O6">
-        <v>0.002249087150348319</v>
+        <v>0.4550758646918624</v>
       </c>
       <c r="P6">
-        <v>0.002257648097996792</v>
+        <v>0.4556932494084679</v>
       </c>
       <c r="Q6">
-        <v>0.054158677504</v>
+        <v>22.57778222561733</v>
       </c>
       <c r="R6">
-        <v>0.487428097536</v>
+        <v>203.200040030556</v>
       </c>
       <c r="S6">
-        <v>0.001114689616000154</v>
+        <v>0.09725074527688352</v>
       </c>
       <c r="T6">
-        <v>0.001345076379243777</v>
+        <v>0.104994071832688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.690236</v>
       </c>
       <c r="I7">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J7">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.52262633333333</v>
+        <v>39.47090533333333</v>
       </c>
       <c r="N7">
-        <v>157.567879</v>
+        <v>118.412716</v>
       </c>
       <c r="O7">
-        <v>0.5018350835578366</v>
+        <v>0.1830441960918238</v>
       </c>
       <c r="P7">
-        <v>0.5037452735999789</v>
+        <v>0.1832925254318273</v>
       </c>
       <c r="Q7">
-        <v>12.08433583660489</v>
+        <v>9.081413271219555</v>
       </c>
       <c r="R7">
-        <v>108.759022529444</v>
+        <v>81.732719440976</v>
       </c>
       <c r="S7">
-        <v>0.2487188442208015</v>
+        <v>0.03911696020308896</v>
       </c>
       <c r="T7">
-        <v>0.3001246603827397</v>
+        <v>0.04223154195627295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.468293</v>
       </c>
       <c r="I8">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J8">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.200671</v>
+        <v>0.2111075</v>
       </c>
       <c r="N8">
-        <v>0.401342</v>
+        <v>0.422215</v>
       </c>
       <c r="O8">
-        <v>0.001917340298512896</v>
+        <v>0.0009789996530386493</v>
       </c>
       <c r="P8">
-        <v>0.001283092321101579</v>
+        <v>0.0006535518839479957</v>
       </c>
       <c r="Q8">
-        <v>0.0469864123015</v>
+        <v>0.04943008224875</v>
       </c>
       <c r="R8">
-        <v>0.187945649206</v>
+        <v>0.197720328995</v>
       </c>
       <c r="S8">
-        <v>0.0009670706209861875</v>
+        <v>0.0002129133982138562</v>
       </c>
       <c r="T8">
-        <v>0.0005186431693342348</v>
+        <v>0.0001021626886597171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>0.468293</v>
       </c>
       <c r="I9">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J9">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.64557</v>
       </c>
       <c r="O9">
-        <v>0.005240946084260416</v>
+        <v>0.00254374739418039</v>
       </c>
       <c r="P9">
-        <v>0.005260895273445404</v>
+        <v>0.002547198402871294</v>
       </c>
       <c r="Q9">
         <v>0.1284348186683333</v>
       </c>
       <c r="R9">
-        <v>0.7706089120100001</v>
+        <v>0.77060891201</v>
       </c>
       <c r="S9">
-        <v>0.002643435277604039</v>
+        <v>0.000553215621896862</v>
       </c>
       <c r="T9">
-        <v>0.002126524610335666</v>
+        <v>0.0003981759425358422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.468293</v>
       </c>
       <c r="I10">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J10">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.16396966666667</v>
+        <v>76.60934666666667</v>
       </c>
       <c r="N10">
-        <v>150.491909</v>
+        <v>229.82804</v>
       </c>
       <c r="O10">
-        <v>0.479298954882761</v>
+        <v>0.3552717160981219</v>
       </c>
       <c r="P10">
-        <v>0.4811233631810715</v>
+        <v>0.3557537001908395</v>
       </c>
       <c r="Q10">
-        <v>11.74571792355617</v>
+        <v>17.93781038928667</v>
       </c>
       <c r="R10">
-        <v>70.47430754133701</v>
+        <v>107.62686233572</v>
       </c>
       <c r="S10">
-        <v>0.2417494371218343</v>
+        <v>0.07726469374012462</v>
       </c>
       <c r="T10">
-        <v>0.1944765328396212</v>
+        <v>0.05561112346977961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1107,10 +1107,10 @@
         <v>0.468293</v>
       </c>
       <c r="I11">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J11">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9899465000000001</v>
+        <v>0.6653395</v>
       </c>
       <c r="N11">
-        <v>1.979893</v>
+        <v>1.330679</v>
       </c>
       <c r="O11">
-        <v>0.00945858802628081</v>
+        <v>0.003085476070972885</v>
       </c>
       <c r="P11">
-        <v>0.00632972752640583</v>
+        <v>0.00205977468204596</v>
       </c>
       <c r="Q11">
-        <v>0.23179250816225</v>
+        <v>0.15578691523675</v>
       </c>
       <c r="R11">
-        <v>0.9271700326490001</v>
+        <v>0.623147660947</v>
       </c>
       <c r="S11">
-        <v>0.004770735066342934</v>
+        <v>0.0006710310808991059</v>
       </c>
       <c r="T11">
-        <v>0.00255856097907188</v>
+        <v>0.0003219822706038953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.468293</v>
       </c>
       <c r="I12">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J12">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.235392</v>
+        <v>98.13070699999999</v>
       </c>
       <c r="N12">
-        <v>0.706176</v>
+        <v>294.392121</v>
       </c>
       <c r="O12">
-        <v>0.002249087150348319</v>
+        <v>0.4550758646918624</v>
       </c>
       <c r="P12">
-        <v>0.002257648097996792</v>
+        <v>0.4556932494084679</v>
       </c>
       <c r="Q12">
-        <v>0.05511621292800001</v>
+        <v>22.9769615865755</v>
       </c>
       <c r="R12">
-        <v>0.330697277568</v>
+        <v>137.861769519453</v>
       </c>
       <c r="S12">
-        <v>0.001134397534348165</v>
+        <v>0.09897015642029888</v>
       </c>
       <c r="T12">
-        <v>0.0009125717187530153</v>
+        <v>0.07123359094678482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.468293</v>
       </c>
       <c r="I13">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J13">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.52262633333333</v>
+        <v>39.47090533333333</v>
       </c>
       <c r="N13">
-        <v>157.567879</v>
+        <v>118.412716</v>
       </c>
       <c r="O13">
-        <v>0.5018350835578366</v>
+        <v>0.1830441960918238</v>
       </c>
       <c r="P13">
-        <v>0.5037452735999789</v>
+        <v>0.1832925254318273</v>
       </c>
       <c r="Q13">
-        <v>12.29798912675783</v>
+        <v>9.241974335631333</v>
       </c>
       <c r="R13">
-        <v>73.787934760547</v>
+        <v>55.451846013788</v>
       </c>
       <c r="S13">
-        <v>0.253116239337035</v>
+        <v>0.03980855528627558</v>
       </c>
       <c r="T13">
-        <v>0.2036206132172392</v>
+        <v>0.02865213561351325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.83722</v>
+      </c>
+      <c r="I14">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J14">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.2111075</v>
+      </c>
+      <c r="N14">
+        <v>0.422215</v>
+      </c>
+      <c r="O14">
+        <v>0.0009789996530386493</v>
+      </c>
+      <c r="P14">
+        <v>0.0006535518839479957</v>
+      </c>
+      <c r="Q14">
+        <v>0.1292836403833333</v>
+      </c>
+      <c r="R14">
+        <v>0.7757018422999999</v>
+      </c>
+      <c r="S14">
+        <v>0.0005568718067057176</v>
+      </c>
+      <c r="T14">
+        <v>0.0004008074749342941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.83722</v>
+      </c>
+      <c r="I15">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J15">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5485233333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.64557</v>
+      </c>
+      <c r="O15">
+        <v>0.00254374739418039</v>
+      </c>
+      <c r="P15">
+        <v>0.002547198402871294</v>
+      </c>
+      <c r="Q15">
+        <v>0.3359193461555556</v>
+      </c>
+      <c r="R15">
+        <v>3.0232741154</v>
+      </c>
+      <c r="S15">
+        <v>0.001446927180008175</v>
+      </c>
+      <c r="T15">
+        <v>0.001562134828292757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.83722</v>
+      </c>
+      <c r="I16">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J16">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>76.60934666666667</v>
+      </c>
+      <c r="N16">
+        <v>229.82804</v>
+      </c>
+      <c r="O16">
+        <v>0.3552717160981219</v>
+      </c>
+      <c r="P16">
+        <v>0.3557537001908395</v>
+      </c>
+      <c r="Q16">
+        <v>46.91607462764444</v>
+      </c>
+      <c r="R16">
+        <v>422.2446716488</v>
+      </c>
+      <c r="S16">
+        <v>0.2020846501844383</v>
+      </c>
+      <c r="T16">
+        <v>0.2181750917932757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.83722</v>
+      </c>
+      <c r="I17">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J17">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6653395</v>
+      </c>
+      <c r="N17">
+        <v>1.330679</v>
+      </c>
+      <c r="O17">
+        <v>0.003085476070972885</v>
+      </c>
+      <c r="P17">
+        <v>0.00205977468204596</v>
+      </c>
+      <c r="Q17">
+        <v>0.4074583453966666</v>
+      </c>
+      <c r="R17">
+        <v>2.44475007238</v>
+      </c>
+      <c r="S17">
+        <v>0.001755071749879463</v>
+      </c>
+      <c r="T17">
+        <v>0.001263209715282715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.83722</v>
+      </c>
+      <c r="I18">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J18">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>98.13070699999999</v>
+      </c>
+      <c r="N18">
+        <v>294.392121</v>
+      </c>
+      <c r="O18">
+        <v>0.4550758646918624</v>
+      </c>
+      <c r="P18">
+        <v>0.4556932494084679</v>
+      </c>
+      <c r="Q18">
+        <v>60.09589917151332</v>
+      </c>
+      <c r="R18">
+        <v>540.8630925436199</v>
+      </c>
+      <c r="S18">
+        <v>0.25885496299468</v>
+      </c>
+      <c r="T18">
+        <v>0.2794655866289951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.83722</v>
+      </c>
+      <c r="I19">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J19">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>39.47090533333333</v>
+      </c>
+      <c r="N19">
+        <v>118.412716</v>
+      </c>
+      <c r="O19">
+        <v>0.1830441960918238</v>
+      </c>
+      <c r="P19">
+        <v>0.1832925254318273</v>
+      </c>
+      <c r="Q19">
+        <v>24.17224556550222</v>
+      </c>
+      <c r="R19">
+        <v>217.55021008952</v>
+      </c>
+      <c r="S19">
+        <v>0.1041186806024593</v>
+      </c>
+      <c r="T19">
+        <v>0.1124088478620411</v>
       </c>
     </row>
   </sheetData>
